--- a/biology/Médecine/Auguste_Debay/Auguste_Debay.xlsx
+++ b/biology/Médecine/Auguste_Debay/Auguste_Debay.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Debay (né le 28 octobre 1802 à Clermont-Ferrand, mort le 28 février 1890) est un médecin et écrivain français.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir servi comme médecin militaire en Algérie, Debay revient en France et, à partir de 1840, écrit une série d'ouvrages de vulgarisation sur des sujets relatifs à l'hygiène, la santé, l'art de vivre, la cosmétique et l'ésotérisme, dont certains remportent un vif succès. Certaines théories de Debay semblent assez contemporaines : par exemple il attribue l'excitation sexuelle et donc l'orgasme chez les femmes principalement à l'irritation du clitoris, du tissu érectile du vagin et des petites lèvres.
-Les idées politiques de Debay tiennent du libéralisme et de l'anticléricalisme. Dans Hygiène des Baigneurs (1849), il plaide pour la laïcité et le progrès social contre l'influence restrictive de l'église catholique[1]
-Son ouvrage Hygiène et physiologie du mariage : histoire naturelle et médicale de l'homme et de la femme mariés, dans ses plus curieux détails : théorie nouvelle de la génération humaine, stérilité, impuissance, imperfections physiques : moyens de les combattre, hygiène spéciale de la femme enceinte et du nouveau-né, paru en 1849, est mis à l’Index librorum prohibitorum le 7 décembre 1852[2]. Il est opposé à la chasteté des prêtres[3].
+Les idées politiques de Debay tiennent du libéralisme et de l'anticléricalisme. Dans Hygiène des Baigneurs (1849), il plaide pour la laïcité et le progrès social contre l'influence restrictive de l'église catholique
+Son ouvrage Hygiène et physiologie du mariage : histoire naturelle et médicale de l'homme et de la femme mariés, dans ses plus curieux détails : théorie nouvelle de la génération humaine, stérilité, impuissance, imperfections physiques : moyens de les combattre, hygiène spéciale de la femme enceinte et du nouveau-né, paru en 1849, est mis à l’Index librorum prohibitorum le 7 décembre 1852. Il est opposé à la chasteté des prêtres.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Ombre de Léonidas à Fabvier, 1828.
 Hypnologie : du sommeil et des songes au point de vue physiologique, somnambulisme, magnétisme, extase, hallucination, exposé d'une théorie du fluide électro-sympathique, 1843.
